--- a/biology/Zoologie/Coradion_chrysozonus/Coradion_chrysozonus.xlsx
+++ b/biology/Zoologie/Coradion_chrysozonus/Coradion_chrysozonus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coradion chrysozonus est une espèce de poisson marin de la famille des Chaetodontidae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants[1] : Australie, Birmanie, Cambodge, Chine, Hong Kong, Indonésie, Japon, Malaisie, Palaos, Papouasie-Nouvelle-Guinée, Philippines, Taïwan, Singapour, Thaïlande, Tonga, Viêt Nam, Îles Salomon.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants : Australie, Birmanie, Cambodge, Chine, Hong Kong, Indonésie, Japon, Malaisie, Palaos, Papouasie-Nouvelle-Guinée, Philippines, Taïwan, Singapour, Thaïlande, Tonga, Viêt Nam, Îles Salomon.
 </t>
         </is>
       </c>
@@ -568,10 +584,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Coradion chrysozonus (Cuvier, 1831)[2].
-Coradion chrysozonus a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Coradion chrysozonus (Cuvier, 1831).
+Coradion chrysozonus a pour synonymes :
 Chaetodon chrysozonus Cuvier, 1831
 Chaetodon guttatus Gronow, 1854
 Chaetodon labiatus Cuvier, 1831</t>
